--- a/docs/TSistema-Serviços.xlsx
+++ b/docs/TSistema-Serviços.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B_89\Documents\GitHub\TSistema\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{595DDC12-177F-4F21-906B-9D31BFF2E4BA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FB56F4CF-1B3A-46D2-9194-554494E1A26A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{81B5F43B-BF9F-4777-B81F-7AB52D8CB876}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ENDPOINTS</t>
   </si>
@@ -48,7 +48,16 @@
     <t>/admin?isValidated</t>
   </si>
   <si>
-    <t>retorna um boolean, informando se o usuário foi validado no servidor ou não.</t>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>/admin</t>
+  </si>
+  <si>
+    <t>Retorna um boolean, informando se o usuário foi validado no servidor ou não.</t>
+  </si>
+  <si>
+    <t>Envia os dados Login e Senha, digitados pelo usuário na tela, para serem validados no servidor.</t>
   </si>
 </sst>
 </file>
@@ -120,12 +129,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,57 +452,68 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="71.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="4"/>
+      <c r="C10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -501,5 +521,6 @@
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/TSistema-Serviços.xlsx
+++ b/docs/TSistema-Serviços.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B_89\Documents\GitHub\TSistema\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FB56F4CF-1B3A-46D2-9194-554494E1A26A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7EDE8927-344F-4CCA-BFAD-B7D6EEF7F4E3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{81B5F43B-BF9F-4777-B81F-7AB52D8CB876}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>ENDPOINTS</t>
-  </si>
-  <si>
-    <t>Técnico/Administrador</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Http Method</t>
   </si>
@@ -58,13 +52,64 @@
   </si>
   <si>
     <t>Envia os dados Login e Senha, digitados pelo usuário na tela, para serem validados no servidor.</t>
+  </si>
+  <si>
+    <t>Retorna a OS pelo número passado como parametro, juntamente com os equipamentos daquela OS.</t>
+  </si>
+  <si>
+    <t>Retorna todos os chamados cadastrados.</t>
+  </si>
+  <si>
+    <t>/admin/chamado/list</t>
+  </si>
+  <si>
+    <t>/admin/os/save</t>
+  </si>
+  <si>
+    <t>Adiciona uma nova OS à tabela de OS, no banco.</t>
+  </si>
+  <si>
+    <t>/admin/os/update</t>
+  </si>
+  <si>
+    <t>Altera uma Ordem de Serviço no banco.</t>
+  </si>
+  <si>
+    <t>/admin/os/delete</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>Remove uma OS do banco.</t>
+  </si>
+  <si>
+    <t>/admin/os/get/{id}</t>
+  </si>
+  <si>
+    <t>/admin/os/list</t>
+  </si>
+  <si>
+    <t>Retorna todas as OS cadastradas no banco.</t>
+  </si>
+  <si>
+    <t>ENDPOINTS - Módulo Técnico/Administrador</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Chamado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,14 +130,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -127,14 +164,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,76 +488,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4C48B6-09EA-44B8-AC76-0A92223F9FD9}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="86.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A14:C14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
